--- a/bank statement generator/bank_statements/statement_16.xlsx
+++ b/bank statement generator/bank_statements/statement_16.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 28.06.2025</t>
+          <t>KONTOSTAND AM 29.03.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,132 +759,132 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>29.06.</t>
+          <t>02.04.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>30.06.</t>
+          <t>03.04.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>ZALANDO MKTPLC EU TUZYLL</t>
+          <t>KARTENZ./02.04 EDEKA RO</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>162,41-</t>
+          <t>53,98-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>01.07.</t>
+          <t>05.04.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>02.07.</t>
+          <t>06.04.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG ARAL TANKSTELLE</t>
+          <t>MCDONALDS Goslar</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>51,91-</t>
+          <t>35,40-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>02.07.</t>
+          <t>07.04.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>03.07.</t>
+          <t>08.04.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL NUGGZZ</t>
+          <t>BURGER KING Hildesheim</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>55,00-</t>
+          <t>42,92-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>04.07.</t>
+          <t>09.04.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>05.07.</t>
+          <t>10.04.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./04.07 EDEKA RO</t>
+          <t>PAYPAL JRTFJM</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>130,56-</t>
+          <t>37,26-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>06.07.</t>
+          <t>12.04.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>07.07.</t>
+          <t>13.04.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 15037280</t>
+          <t>KARTENZ./12.04 REWE RO</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>87,80-</t>
+          <t>128,32-</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>07.07.</t>
+          <t>16.04.</t>
         </is>
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>08.07.</t>
+          <t>17.04.</t>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>MCDONALDS Bayreuth</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
         <is>
-          <t>23,13-</t>
+          <t>25,39-</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 10.07.2025</t>
+          <t>KONTOSTAND AM 20.04.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>510,81-</t>
+          <t>323,27-</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 20.07.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 28.04.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
